--- a/data-raw/text_file.xlsx
+++ b/data-raw/text_file.xlsx
@@ -1,65 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\01_Professional\10_REACH_HQ_WORK\02_efficiency\MSNAdashboardTemplate\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50888B-D1F6-435C-9A37-05876B663E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="text" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="text" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">readme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This should be fillup xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use strong() for bold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact_person_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_person_email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>trips</t>
+  </si>
+  <si>
+    <t>This should be fillup xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Contact_person_name</t>
+  </si>
+  <si>
+    <t>contact_person_email</t>
+  </si>
+  <si>
+    <t>Mehedi KHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mehedi.khan@impact-initiatives.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML code </t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>&lt;b&gt; YOUR TEXT &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;em&gt; YOUR TEXT &lt;/em&gt; Or
+&lt;i&gt; YOUR TEXT &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Italic</t>
+  </si>
+  <si>
+    <t>bullte point</t>
+  </si>
+  <si>
+    <t>number point</t>
+  </si>
+  <si>
+    <t>An unordered HTML list:</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;Coffee&lt;/li&gt;
+  &lt;li&gt;Tea&lt;/li&gt;
+  &lt;li&gt;Milk&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>underline</t>
+  </si>
+  <si>
+    <t>&lt;u&gt; &lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>An ordered HTML list:</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+  &lt;li&gt;Coffee&lt;/li&gt;
+  &lt;li&gt;Tea&lt;/li&gt;
+  &lt;li&gt;Milk&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ol&gt;&lt;em&gt; &lt;li&gt;Tests are not applied yet!&lt;/em&gt; &lt;/li&gt;
+&lt;em&gt; &lt;li&gt;Tests are not applied yet &lt;/em&gt; &lt;/li&gt;
+&lt;/ol&gt; </t>
+  </si>
+  <si>
+    <t>The steps you should follow are - &lt;br&gt;
+&lt;ol&gt;
+&lt;li&gt; Prepare kobo tool &lt;/li&gt;
+&lt;li&gt; Create DAP for the dashboard &lt;/li&gt;
+&lt;li&gt; . Create list of mismatched strata &lt;/li&gt;
+&lt;li&gt;  Rename OCHA namel &lt;/li&gt;
+&lt;li&gt;  Data preparation for dashboard&lt;/li&gt;
+&lt;li&gt;  Create text file&lt;/li&gt;
+&lt;li&gt;  Create summary&lt;/li&gt;
+&lt;li&gt;  Create dashboard&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the Shiny Dashboard Template! This user-friendly and customizable dashboard template is designed to empower country teams with the tools they need to visualize, and present their data effectively and easily.Some key features are following-
+&lt;ol&gt;&lt;em&gt; &lt;li&gt;Moduler: &lt;/em&gt; The dashboard is created based on &lt;em&gt; golem&lt;/em&gt;  package. Golem provides a framework for organizing and structuring your Shiny code to create scalable and maintainable applications. It includes a set of best practices and conventions for building Shiny applications, such as separating the UI (user interface) and server logic into separate files, using reactive programming to minimize data processing, and leveraging package management to simplify dependency management.&lt;/li&gt;
+ &lt;li&gt;&lt;em&gt;Functions to make the process faster.&lt;/em&gt;&lt;/li&gt;
+ &lt;li&gt;&lt;em&gt;Customizable Layout and Design:&lt;/em&gt; &lt;/li&gt;
+&lt;/ol&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,36 +176,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="readme"/>
-    <tableColumn id="2" name="trips"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="readme"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="trips"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B6" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:B6"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="details"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="details"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -392,14 +505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.88671875" customWidth="1"/>
+    <col min="2" max="2" width="83.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,74 +526,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="57.5546875" customWidth="1"/>
+    <col min="2" max="2" width="134.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{8C245621-819B-4AD2-B274-FAB4F325AC28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>